--- a/data/trans_orig/P04C04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A58CF8BE-0A99-4D5C-926F-1B04484416EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEBAA68-7110-4F69-A420-694BA5146150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23C5C1C2-27DC-4FFF-885C-2881F3E3134B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8B1A3E5-C699-4B54-A8B0-94848258D4EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5924A4-63AF-4D51-9839-6130D4C9B2D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0167216-5E7C-4F6F-BE25-75116781AD44}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P04C04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEBAA68-7110-4F69-A420-694BA5146150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B137D9-0D7E-4B13-931C-13318E3D97AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8B1A3E5-C699-4B54-A8B0-94848258D4EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{451595C8-21E2-47B5-9452-4C99702E7A15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
-  <si>
-    <t>Hogares con refrigeración por aires acondicionado mediante aparatos móviles (NO ventiladores) en 2023 (Tasa respuesta: 99,71%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+  <si>
+    <t>Población con refrigeración por aire acondicionado mediante aparatos móviles (NO ventiladores) en la vivienda en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>89,61%</t>
   </si>
   <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>90,18%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
@@ -104,289 +104,298 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>Si, funciona correctamente</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>Si, funciona correctamente</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>20,43%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>79,05%</t>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>84,57%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>14,96%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0167216-5E7C-4F6F-BE25-75116781AD44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C914E45E-9C39-4023-BAD3-360E2F009947}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1200,10 +1209,10 @@
         <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
@@ -1212,13 +1221,13 @@
         <v>41092</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1233,13 +1242,13 @@
         <v>342554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>456</v>
@@ -1248,13 +1257,13 @@
         <v>302131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>732</v>
@@ -1263,13 +1272,13 @@
         <v>644685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1325,7 +1334,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1337,13 +1346,13 @@
         <v>539852</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>778</v>
@@ -1352,13 +1361,13 @@
         <v>574410</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1313</v>
@@ -1367,13 +1376,13 @@
         <v>1114262</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,13 +1397,13 @@
         <v>8565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -1403,13 +1412,13 @@
         <v>9211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -1418,13 +1427,13 @@
         <v>17776</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1439,13 +1448,13 @@
         <v>122914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>208</v>
@@ -1454,10 +1463,10 @@
         <v>126850</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>91</v>
@@ -1540,7 +1549,7 @@
         <v>2851</v>
       </c>
       <c r="D16" s="7">
-        <v>2818552</v>
+        <v>2818553</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>95</v>
@@ -1549,7 +1558,7 @@
         <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>4476</v>
@@ -1558,13 +1567,13 @@
         <v>3234320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>7327</v>
@@ -1573,13 +1582,13 @@
         <v>6052872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1603,13 @@
         <v>43207</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -1609,13 +1618,13 @@
         <v>41546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -1624,13 +1633,13 @@
         <v>84753</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,16 +1651,16 @@
         <v>463</v>
       </c>
       <c r="D18" s="7">
-        <v>507125</v>
+        <v>507126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>806</v>
@@ -1660,13 +1669,13 @@
         <v>512564</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>1269</v>
@@ -1675,13 +1684,13 @@
         <v>1019690</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,7 +1702,7 @@
         <v>3355</v>
       </c>
       <c r="D19" s="7">
-        <v>3368884</v>
+        <v>3368885</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1737,7 +1746,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04C04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B137D9-0D7E-4B13-931C-13318E3D97AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5682D67B-430A-4184-9399-1C8CE55ADEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{451595C8-21E2-47B5-9452-4C99702E7A15}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FDEEA6F0-4E6C-4107-87D9-D1F379194146}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
     <t>Población con refrigeración por aire acondicionado mediante aparatos móviles (NO ventiladores) en la vivienda en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -71,331 +71,328 @@
     <t>No</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>Si, funciona correctamente</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>Si, funciona correctamente</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C914E45E-9C39-4023-BAD3-360E2F009947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0AE2FC-8913-4357-B534-E27D3A4C76A7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -931,7 +928,7 @@
         <v>623</v>
       </c>
       <c r="D4" s="7">
-        <v>482015</v>
+        <v>457851</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,7 +943,7 @@
         <v>1262</v>
       </c>
       <c r="I4" s="7">
-        <v>737416</v>
+        <v>665948</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,7 +958,7 @@
         <v>1885</v>
       </c>
       <c r="N4" s="7">
-        <v>1219430</v>
+        <v>1123798</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>14231</v>
+        <v>13652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -997,7 +994,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>11654</v>
+        <v>10635</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1012,7 +1009,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>25885</v>
+        <v>24287</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1033,7 +1030,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>41657</v>
+        <v>39947</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1048,7 +1045,7 @@
         <v>142</v>
       </c>
       <c r="I6" s="7">
-        <v>83584</v>
+        <v>76068</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1063,7 +1060,7 @@
         <v>192</v>
       </c>
       <c r="N6" s="7">
-        <v>125241</v>
+        <v>116015</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1084,7 +1081,7 @@
         <v>687</v>
       </c>
       <c r="D7" s="7">
-        <v>537903</v>
+        <v>511450</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1099,7 +1096,7 @@
         <v>1422</v>
       </c>
       <c r="I7" s="7">
-        <v>832653</v>
+        <v>752651</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1114,7 +1111,7 @@
         <v>2109</v>
       </c>
       <c r="N7" s="7">
-        <v>1370556</v>
+        <v>1264101</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1137,7 +1134,7 @@
         <v>1693</v>
       </c>
       <c r="D8" s="7">
-        <v>1796686</v>
+        <v>1737345</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1152,7 +1149,7 @@
         <v>2436</v>
       </c>
       <c r="I8" s="7">
-        <v>1922494</v>
+        <v>1883459</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1167,7 +1164,7 @@
         <v>4129</v>
       </c>
       <c r="N8" s="7">
-        <v>3719180</v>
+        <v>3620805</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1188,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="7">
-        <v>20411</v>
+        <v>20107</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1203,7 +1200,7 @@
         <v>23</v>
       </c>
       <c r="I9" s="7">
-        <v>20681</v>
+        <v>18532</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1212,22 +1209,22 @@
         <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
       </c>
       <c r="N9" s="7">
-        <v>41092</v>
+        <v>38639</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1239,46 +1236,46 @@
         <v>276</v>
       </c>
       <c r="D10" s="7">
-        <v>342554</v>
+        <v>530619</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>456</v>
       </c>
       <c r="I10" s="7">
-        <v>302131</v>
+        <v>331871</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>732</v>
       </c>
       <c r="N10" s="7">
-        <v>644685</v>
+        <v>862490</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,7 +1287,7 @@
         <v>1989</v>
       </c>
       <c r="D11" s="7">
-        <v>2159651</v>
+        <v>2288071</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1305,7 +1302,7 @@
         <v>2915</v>
       </c>
       <c r="I11" s="7">
-        <v>2245306</v>
+        <v>2233862</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1320,7 +1317,7 @@
         <v>4904</v>
       </c>
       <c r="N11" s="7">
-        <v>4404957</v>
+        <v>4521934</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1343,46 +1340,46 @@
         <v>535</v>
       </c>
       <c r="D12" s="7">
-        <v>539852</v>
+        <v>515210</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>778</v>
       </c>
       <c r="I12" s="7">
-        <v>574410</v>
+        <v>533454</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1313</v>
       </c>
       <c r="N12" s="7">
-        <v>1114262</v>
+        <v>1048665</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,46 +1391,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>8565</v>
+        <v>8548</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>9211</v>
+        <v>8429</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>17776</v>
+        <v>16977</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,7 +1442,7 @@
         <v>137</v>
       </c>
       <c r="D14" s="7">
-        <v>122914</v>
+        <v>121225</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1460,31 +1457,31 @@
         <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>126850</v>
+        <v>115416</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>345</v>
       </c>
       <c r="N14" s="7">
-        <v>249764</v>
+        <v>236641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,7 +1493,7 @@
         <v>679</v>
       </c>
       <c r="D15" s="7">
-        <v>671331</v>
+        <v>644983</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1511,7 +1508,7 @@
         <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>710471</v>
+        <v>657299</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1526,7 +1523,7 @@
         <v>1679</v>
       </c>
       <c r="N15" s="7">
-        <v>1381802</v>
+        <v>1302283</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1549,46 +1546,46 @@
         <v>2851</v>
       </c>
       <c r="D16" s="7">
-        <v>2818553</v>
+        <v>2710406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>4476</v>
       </c>
       <c r="I16" s="7">
-        <v>3234320</v>
+        <v>3082862</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>7327</v>
       </c>
       <c r="N16" s="7">
-        <v>6052872</v>
+        <v>5793268</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,46 +1597,46 @@
         <v>41</v>
       </c>
       <c r="D17" s="7">
-        <v>43207</v>
+        <v>42307</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
       </c>
       <c r="I17" s="7">
-        <v>41546</v>
+        <v>37596</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
       </c>
       <c r="N17" s="7">
-        <v>84753</v>
+        <v>79903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,46 +1648,46 @@
         <v>463</v>
       </c>
       <c r="D18" s="7">
-        <v>507126</v>
+        <v>691791</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>806</v>
       </c>
       <c r="I18" s="7">
-        <v>512564</v>
+        <v>523355</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>1269</v>
       </c>
       <c r="N18" s="7">
-        <v>1019690</v>
+        <v>1215146</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,7 +1699,7 @@
         <v>3355</v>
       </c>
       <c r="D19" s="7">
-        <v>3368885</v>
+        <v>3444504</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1717,7 +1714,7 @@
         <v>5337</v>
       </c>
       <c r="I19" s="7">
-        <v>3788430</v>
+        <v>3643813</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1732,7 +1729,7 @@
         <v>8692</v>
       </c>
       <c r="N19" s="7">
-        <v>7157315</v>
+        <v>7088317</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1746,7 +1743,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
